--- a/logs/session_metrics.xlsx
+++ b/logs/session_metrics.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,7 +670,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45818.78003615847</v>
+        <v>45818.7800361574</v>
       </c>
       <c r="B14" t="n">
         <v>1.891496419906616</v>
@@ -683,6 +683,23 @@
       </c>
       <c r="E14" t="n">
         <v>2.953281164169312</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45818.80241856864</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2.033881664276123</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.321829557418823</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.3610467910766602</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.716758012771606</v>
       </c>
     </row>
   </sheetData>
